--- a/biology/Médecine/Ian_Dowbiggin/Ian_Dowbiggin.xlsx
+++ b/biology/Médecine/Ian_Dowbiggin/Ian_Dowbiggin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ian Dowbiggin, né en 1952, est un historien canadien de la médecine et historien renommé de la question de l’euthanasie[1]. Il est professeur au département d'histoire de l'université de l'Île-du-Prince-Édouard. Ses recherches ont été financées par le Conseil de recherche en sciences humaines du Canada
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian Dowbiggin, né en 1952, est un historien canadien de la médecine et historien renommé de la question de l’euthanasie. Il est professeur au département d'histoire de l'université de l'Île-du-Prince-Édouard. Ses recherches ont été financées par le Conseil de recherche en sciences humaines du Canada
 Depuis 2011, il est membre de la Société royale du Canada.
 </t>
         </is>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The Quest for Mental Health: A Tale of Science, Medicine, Scandal, Sorrow, and Mass Society (2011)
 A Concise History of Euthanasia: Life, Death, God, and Medicine (2005)
